--- a/medicine/Bioéthique/Claude_Kordon/Claude_Kordon.xlsx
+++ b/medicine/Bioéthique/Claude_Kordon/Claude_Kordon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Claude Kordon, né le 11 avril 1934 à Genève et mort le 2 juin 2008 à Paris 15e[1],[2],[3], est un biologiste français spécialiste en endocrinologie et neuroendocrinologie.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claude Kordon, né le 11 avril 1934 à Genève et mort le 2 juin 2008 à Paris 15e est un biologiste français spécialiste en endocrinologie et neuroendocrinologie.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Claude Kordon a grandi et fait ses études à Genève jusqu'à la licence, puis obtient, auprès de Jacques Benoît, son doctorat de sciences en 1966 à l'Université de Paris avant de devenir chercheur au CNRS[2],[4]. Il a été de 1975 à 1999 directeur de l'unité 159 de l'INSERM, à Paris, s'intéressant aux recherches sur la dynamique des ensembles neuroendocriniens.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claude Kordon a grandi et fait ses études à Genève jusqu'à la licence, puis obtient, auprès de Jacques Benoît, son doctorat de sciences en 1966 à l'Université de Paris avant de devenir chercheur au CNRS,. Il a été de 1975 à 1999 directeur de l'unité 159 de l'INSERM, à Paris, s'intéressant aux recherches sur la dynamique des ensembles neuroendocriniens.
 Claude Kordon a été très impliqué dans les structures administratives du CNRS (membre du conseil scientifique de 1980 à 1985) et de l'INSERM (membre du conseil scientifique de 1986 à 1990 ; membre du CODIS de 1991 à 1996). Il a été membre du Comité consultatif national d'éthique de 2002 à 2008.
-Il a été également éditeur en chef de la revue Neuroendocrinology (1994-2005)[5] et membre fondateur et premier président d’Euroscience (en) (1997-2001)[2].
+Il a été également éditeur en chef de la revue Neuroendocrinology (1994-2005) et membre fondateur et premier président d’Euroscience (en) (1997-2001).
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Apports scientifiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis sa thèse d'État ayant porté sur « la physiologie du contrôle hypothalamique de la fonction gonadotrope »[4], les travaux de Claude Kordon se sont principalement orientés vers la neuroendocrinologie, c'est-à-dire le rôle et les fonctions des hormones (notamment de l'hormone de croissance) dans le cerveau au niveau de leurs actions sur le comportement, la physiologie, et le système immunitaire.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis sa thèse d'État ayant porté sur « la physiologie du contrôle hypothalamique de la fonction gonadotrope », les travaux de Claude Kordon se sont principalement orientés vers la neuroendocrinologie, c'est-à-dire le rôle et les fonctions des hormones (notamment de l'hormone de croissance) dans le cerveau au niveau de leurs actions sur le comportement, la physiologie, et le système immunitaire.
 </t>
         </is>
       </c>
@@ -575,11 +591,13 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Coauteur de plus de 300 articles dans des revues internationales[2]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Coauteur de plus de 300 articles dans des revues internationales
 Communication cellulaire et pathologie, Éditions Inserm/John Libbey, Paris, 1986
-Le Langage des cellules[6], Hachette, Paris, 1987  (ISBN 2010160959)
+Le Langage des cellules, Hachette, Paris, 1987  (ISBN 2010160959)
 Le Cerveau, Presses de la Cité, Paris, 1990  (ISBN 2266048074)
 L'Hormone de croissance par Claude Kordon et Marie-Thérèse Bluet-Pajot, Paris, 2006  (ISBN 2717851461)
 Sciences de l'homme et sciences de la nature : essais d'épistémologie comparée par	Claude Grignon et Claude Kordon, éditions Maison des Sciences de l'Homme, 2009,  (ISBN 9782735112432).</t>
